--- a/Keys_Onboarding/ExcelData/TestData.xlsx
+++ b/Keys_Onboarding/ExcelData/TestData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3CD9409B-6F49-C243-B56C-75B62EC2BB7F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A619D39C-86F4-4079-9C7C-6302E84C999D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="1460" windowWidth="27800" windowHeight="15080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1716" yWindow="1464" windowWidth="27804" windowHeight="15084" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,9 @@
     <sheet name="Property Details" sheetId="3" r:id="rId3"/>
     <sheet name="Finance Details" sheetId="4" r:id="rId4"/>
     <sheet name="Tenant Details" sheetId="5" r:id="rId5"/>
+    <sheet name="List Rental Property" sheetId="6" r:id="rId6"/>
+    <sheet name="Add Tenant" sheetId="7" r:id="rId7"/>
+    <sheet name="Send Request" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
   <si>
     <t>Url</t>
   </si>
@@ -35,12 +38,6 @@
     <t>http://new-keys.azurewebsites.net/Account/Login</t>
   </si>
   <si>
-    <t>vincent.nguyen@mvpstudio.co.nz</t>
-  </si>
-  <si>
-    <t>ntmv2682</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -150,13 +147,124 @@
   </si>
   <si>
     <t>KarakaProperty</t>
+  </si>
+  <si>
+    <t>Choose Files</t>
+  </si>
+  <si>
+    <t>hmxowner@yahoo.com</t>
+  </si>
+  <si>
+    <t>hmx123456</t>
+  </si>
+  <si>
+    <t>Select Property</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Moving Cost</t>
+  </si>
+  <si>
+    <t>Occupants Count</t>
+  </si>
+  <si>
+    <t>Pets Allowed</t>
+  </si>
+  <si>
+    <t>This is a very nice house</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>C:\Users\Colin Gao\Desktop\p1.jpg</t>
+  </si>
+  <si>
+    <t>hmxtenant@yahoo.com</t>
+  </si>
+  <si>
+    <t>New house for rent</t>
+  </si>
+  <si>
+    <t>Is Main Tenant</t>
+  </si>
+  <si>
+    <t>Rent Start Date</t>
+  </si>
+  <si>
+    <t>Rent End Date</t>
+  </si>
+  <si>
+    <t>Liability Name</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Monthly</t>
+  </si>
+  <si>
+    <t>Property Type</t>
+  </si>
+  <si>
+    <t>Senior Housing</t>
+  </si>
+  <si>
+    <t>Rent Type</t>
+  </si>
+  <si>
+    <t>Owner Occupied</t>
+  </si>
+  <si>
+    <t>133321@yahoo.com</t>
+  </si>
+  <si>
+    <t>Tenant</t>
+  </si>
+  <si>
+    <t>Gao</t>
+  </si>
+  <si>
+    <t>Hmx</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>General Request</t>
+  </si>
+  <si>
+    <t>Please maintenance the lawn</t>
+  </si>
+  <si>
+    <t>C:\Users\Colin Gao\Documents\Sammy\Keys_Onboarding\Keys_Onboarding\ExcelData\p.jpg</t>
+  </si>
+  <si>
+    <t>SammyTenant H</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>C:\Users\Colin Gao\Documents\Sammy\Keys_Onboarding\Keys_Onboarding\ExcelData\upload.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +278,14 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -202,10 +318,16 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -487,45 +609,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="47.5" customWidth="1"/>
-    <col min="2" max="2" width="36.5" customWidth="1"/>
-    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="2" max="2" width="47.44140625" customWidth="1"/>
+    <col min="3" max="3" width="36.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{BAF2A7FA-43B8-4AEB-AB9C-C41D61B40D6F}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{507582BC-9191-40A6-99D0-68598ABB4D92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -537,7 +685,7 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -545,110 +693,135 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8037E4-F885-284D-8A93-6E2D82E935DA}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" customWidth="1"/>
+    <col min="1" max="2" width="16" customWidth="1"/>
+    <col min="9" max="9" width="26.77734375" customWidth="1"/>
+    <col min="18" max="18" width="4.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2">
+        <v>21668233</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2">
-        <v>21668233</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="G2">
+        <v>600</v>
+      </c>
+      <c r="H2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
+      <c r="I2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>600</v>
-      </c>
-      <c r="G2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2">
-        <v>1999</v>
       </c>
       <c r="J2">
         <v>400</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2">
         <v>600</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>100</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>3</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
       </c>
       <c r="O2">
         <v>2</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>1999</v>
+      </c>
+      <c r="R2" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -665,23 +838,23 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>800000</v>
       </c>
@@ -702,58 +875,73 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="8" max="8" width="13.77734375" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="B2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="C2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
+      <c r="D2" s="4">
+        <v>43257</v>
+      </c>
+      <c r="E2" s="4">
+        <v>43685</v>
       </c>
       <c r="F2">
         <v>500</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="4">
+        <v>43257</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -762,4 +950,254 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CF02ADD-C2A8-4D2E-BB32-A1FEB29480A4}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.5546875" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="45.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2">
+        <v>600</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDA24AB-903F-49D8-BF46-7102BD702B4B}">
+  <dimension ref="A1:M3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.77734375" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+    <col min="6" max="6" width="20.77734375" customWidth="1"/>
+    <col min="7" max="8" width="20.21875" customWidth="1"/>
+    <col min="9" max="10" width="18.77734375" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" customWidth="1"/>
+    <col min="12" max="12" width="15.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="4">
+        <v>43257</v>
+      </c>
+      <c r="G2" s="4">
+        <v>43748</v>
+      </c>
+      <c r="H2">
+        <v>600</v>
+      </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="4">
+        <v>43379</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{677A562A-0A6A-43BC-8A51-0D41083ABAB1}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{20A2A06B-C7F5-48BE-B12A-9EFBB7969DEE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45222039-7CC7-4239-8AB2-829244382892}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.21875" customWidth="1"/>
+    <col min="5" max="5" width="90.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>